--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2122883.667097552</v>
+        <v>2120631.587386343</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738213</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +710,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>274.7944255145761</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804553998</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -795,7 +795,7 @@
         <v>225.7871683969286</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>256.6811857025927</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>50.99152506304736</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>20.29515656310261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.78085380126518</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>59.62065708941206</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177672</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>213.4331505673757</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.52918235370657</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>81.77200357366338</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206807</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503991</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>41.16673120696148</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229359</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,10 +1585,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365897</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.294096136280455</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833994</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.52471385612599</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>21.90286287505419</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>26.70391688093255</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>18.938329309431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,13 +2959,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>246.2840235835277</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>121.8000472740369</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>66.25628701154714</v>
+        <v>217.4054503272864</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>10.63412424768206</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,13 +3901,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>20.88994825141623</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.52471385612597</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4147,13 +4147,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>66.25628701154712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288558</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4325,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4346,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
         <v>458.9189605332749</v>
@@ -4398,22 +4398,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="V4" t="n">
-        <v>576.372060369826</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="W4" t="n">
-        <v>286.9548903328654</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="X4" t="n">
-        <v>235.4482993600903</v>
+        <v>248.1605812624231</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.4482993600903</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794325</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2755.806928794325</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2735.306770649777</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>246.527082541107</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>246.527082541107</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4732,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="W7" t="n">
-        <v>770.8336626268118</v>
+        <v>474.5166334391243</v>
       </c>
       <c r="X7" t="n">
-        <v>770.8336626268118</v>
+        <v>246.527082541107</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.0410834832817</v>
+        <v>246.527082541107</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279064</v>
+        <v>939.4077790033352</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672313</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1160070740689</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>335.1301022844613</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>324.0980561698619</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259409</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962291</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596507</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181855</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181855</v>
+        <v>838.2890224104441</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181855</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181855</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181855</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.0944266746553</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,64 +5027,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191923</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349509</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061502</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616109</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180513</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>449.4852666057155</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>407.902709831007</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>95.584050252739</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>95.584050252739</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>699.7311804011399</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2445.655915765836</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2262.80108142074</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.199616443681</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.199616443681</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1788.515128237794</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1271.108407302816</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,52 +5501,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998304</v>
       </c>
       <c r="E19" t="n">
-        <v>266.4891497944943</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F19" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,22 +5975,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,28 +5999,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>789.7592298206043</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>620.8230468926974</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>470.7064074803617</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1709.606994729352</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1420.189824692392</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1192.200273794374</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>971.4076946508441</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,16 +6236,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,10 +6473,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
         <v>1307.627092998424</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6774,25 +6774,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1026.887310050512</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1654.485273605118</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400735</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277377</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298274</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V37" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138434</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703132</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7154,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>1522.21291626627</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>2149.810879820877</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>481.447947124485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>333.5348535420919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>186.6449060441816</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>186.6449060441816</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,40 +7421,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944943</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>119.599202296584</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797189</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2074.122646505557</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844822877</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>105.2672314396077</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218874</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>65.08115057384124</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844822923</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>139.9994244361428</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>143.6212754172147</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>206.7713260796062</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>40.2389747530633</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>43.72409101823192</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>151.1491633157411</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>129.6605885985418</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>55.74112246243956</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26035,13 +26035,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>99.26785128072173</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567994</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>841353.9758775395</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775396</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>841353.9758775397</v>
+        <v>841353.9758775398</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>841353.9758775398</v>
+        <v>841353.9758775397</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="J2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="L2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073546</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26418,31 @@
         <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.6960418673</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
+        <v>14826.69604186731</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14826.69604186734</v>
+      </c>
+      <c r="J4" t="n">
+        <v>14826.69604186733</v>
+      </c>
+      <c r="K4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14826.69604186736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14826.69604186737</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26451,10 +26451,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-935020.1472414332</v>
+        <v>-935020.1472414329</v>
       </c>
       <c r="C6" t="n">
         <v>393724.5984861595</v>
       </c>
       <c r="D6" t="n">
-        <v>393724.5984861595</v>
+        <v>393724.5984861598</v>
       </c>
       <c r="E6" t="n">
-        <v>143819.5971021251</v>
+        <v>143784.8591766884</v>
       </c>
       <c r="F6" t="n">
-        <v>469232.0589094802</v>
+        <v>469197.3209840445</v>
       </c>
       <c r="G6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.320984044</v>
       </c>
       <c r="H6" t="n">
-        <v>469232.0589094799</v>
+        <v>469197.3209840443</v>
       </c>
       <c r="I6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="J6" t="n">
-        <v>251700.8565122022</v>
+        <v>251666.1185867668</v>
       </c>
       <c r="K6" t="n">
-        <v>469232.0589094797</v>
+        <v>469197.3209840441</v>
       </c>
       <c r="L6" t="n">
-        <v>469232.0589094802</v>
+        <v>469197.320984044</v>
       </c>
       <c r="M6" t="n">
-        <v>384177.0309739683</v>
+        <v>384142.2930485326</v>
       </c>
       <c r="N6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.3209840442</v>
       </c>
       <c r="O6" t="n">
-        <v>469232.0589094798</v>
+        <v>469197.320984044</v>
       </c>
       <c r="P6" t="n">
-        <v>469232.0589094799</v>
+        <v>469197.3209840439</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.431447165888068e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.431447165888068e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26741,7 +26741,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,16 +26820,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.431447165888068e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.431447165888068e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468616</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>52.95783295555879</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>29.53065250302018</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>174.7181303259898</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>349.4359441153664</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.8346192169472</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,16 +27831,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>226.9023412471789</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029158</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>81.17461381994474</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>160.3027978282307</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>137.7769457025058</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.701296612443267e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28308,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.68248982894876e-13</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31841,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>734.2678383622656</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319862</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>732.482598761492</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>602.4605829984181</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>454.8099857531869</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>658.2124561388958</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>386.7287743289961</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>314.3020503687028</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>382.1329742631541</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>592.1338044402472</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875417</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394736</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060468</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>471.1188709150848</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>57.65947400496658</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>320.8355783388566</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>526.8707440555626</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>244.1325298845517</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>171.7058059242583</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>248.1585668488238</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
